--- a/Tekst/Skema.xlsx
+++ b/Tekst/Skema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="-1080" windowWidth="13820" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Dato for færdiggørelse:</t>
   </si>
@@ -33,9 +33,6 @@
     <t>5 Brief Use Cases</t>
   </si>
   <si>
-    <t>1 Fully Dressed Use Case (Create Match)</t>
-  </si>
-  <si>
     <t>DESIGN:</t>
   </si>
   <si>
@@ -127,6 +124,12 @@
   </si>
   <si>
     <t>DONE</t>
+  </si>
+  <si>
+    <t>Skal tjekkes</t>
+  </si>
+  <si>
+    <t>1 Fully Dressed Use Case (Manage played game)</t>
   </si>
 </sst>
 </file>
@@ -186,7 +189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +199,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF14FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -216,7 +225,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -234,6 +243,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Besøgt link" xfId="2" builtinId="9" hidden="1"/>
@@ -569,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -581,12 +591,12 @@
     <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25">
+    <row r="1" spans="1:8" ht="25">
       <c r="A1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -597,10 +607,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -608,191 +621,197 @@
         <v>42328</v>
       </c>
       <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30">
+    </row>
+    <row r="5" spans="1:8" ht="30">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B5" s="7">
         <v>42332</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="7">
         <v>42332</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="7">
         <v>42333</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="7">
         <v>42333</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="7">
         <v>42332</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="7">
         <v>42328</v>
       </c>
       <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="25">
+      <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" ht="25">
-      <c r="A14" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:8">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="25">
       <c r="A25" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
       <c r="A28" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -800,7 +819,7 @@
     </row>
     <row r="40" spans="1:1" ht="45">
       <c r="A40" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:1">

--- a/Tekst/Skema.xlsx
+++ b/Tekst/Skema.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Dato for færdiggørelse:</t>
   </si>
@@ -130,6 +130,15 @@
   </si>
   <si>
     <t>1 Fully Dressed Use Case (Manage played game)</t>
+  </si>
+  <si>
+    <t>Supplerende kravliste</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Hvad er det?</t>
   </si>
 </sst>
 </file>
@@ -582,7 +591,7 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -693,7 +702,15 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2"/>

--- a/Tekst/Skema.xlsx
+++ b/Tekst/Skema.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26408"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henriettebarchager/Documents/Premier League projekt/Premier_League/Tekst/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="14500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Dato for færdiggørelse:</t>
   </si>
@@ -139,6 +144,9 @@
   </si>
   <si>
     <t>Hvad er det?</t>
+  </si>
+  <si>
+    <t>lol</t>
   </si>
 </sst>
 </file>
@@ -263,6 +271,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -591,21 +604,21 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
     <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25">
+    <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -622,7 +635,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -636,7 +649,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30">
+    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
@@ -647,7 +660,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -655,15 +668,18 @@
         <v>42332</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="7">
         <v>42333</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -671,7 +687,7 @@
         <v>42333</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -682,7 +698,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -696,12 +712,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
@@ -712,18 +728,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="25">
+    <row r="14" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -733,42 +749,42 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30">
+    <row r="20" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="25">
+    <row r="25" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
@@ -776,88 +792,83 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30">
+    <row r="28" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:1" ht="45">
+    <row r="40" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>